--- a/Data/Optimised_Networks/k_fold_avg_mse 3_20-20-12_15_0.001_50.xlsx
+++ b/Data/Optimised_Networks/k_fold_avg_mse 3_20-20-12_15_0.001_50.xlsx
@@ -376,7 +376,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.008309647904917974</v>
+        <v>0.008347097297952499</v>
       </c>
     </row>
     <row r="3">
